--- a/templates/Final/Tracker_Question_Mapping_Template_Annotated_Final.xlsx
+++ b/templates/Final/Tracker_Question_Mapping_Template_Annotated_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D20A787-0D1C-424B-899B-6C32F0F1B762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2DC7A-EE38-1E43-8886-8DD2E30D7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29860" windowHeight="23520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="29860" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>Tracker Question Mapping Template - Instructions</t>
   </si>
   <si>
-    <t>Created: 2025-12-02</t>
-  </si>
-  <si>
     <t>OVERVIEW</t>
   </si>
   <si>
@@ -1354,13 +1351,16 @@
   </si>
   <si>
     <t>Comma separated list of all questions - only choose from questions you are tracking - these are your question map questionID codes, not the individual wave question codes</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,34 +1519,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF383A42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFE45649"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4078F2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB76B01"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1613,12 +1585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1656,6 +1622,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
@@ -1971,299 +1943,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>63</v>
+      <c r="A28" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+    <row r="35" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+    <row r="45" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2313,1131 +2285,1131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="D25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
+      <c r="C26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+      <c r="C55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="23" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="23" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="23" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
+      <c r="C71" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="23" t="s">
+      <c r="C72" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="23" t="s">
+      <c r="C73" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="23" t="s">
+      <c r="C74" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
+      <c r="C75" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="23" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="23" t="s">
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="23" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="23" t="s">
+      <c r="C89" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="23" t="s">
+      <c r="C91" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="18" t="s">
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="2:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="B101" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-    </row>
-    <row r="101" spans="2:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="B101" s="20" t="s">
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="23" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="23" t="s">
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="23" t="s">
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
